--- a/data/landings/cdfw/public/fish_bulletins/raw/fb149/raw/Table5.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb149/raw/Table5.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/fb149/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilavargaspoulsen/github/wc_climate_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb149/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605057EE-B06A-7A40-93EB-EBAE7A123F2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B48B357-5D27-114A-A976-86538EBEA1F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16860" yWindow="3300" windowWidth="27640" windowHeight="16940" xr2:uid="{854192E4-6580-6247-8577-382C5F7F3378}"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" xr2:uid="{854192E4-6580-6247-8577-382C5F7F3378}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -27,18 +35,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>License year*</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>1967-68...........</t>
-  </si>
-  <si>
-    <t>1968-69...........</t>
-  </si>
-  <si>
     <t>Total check</t>
   </si>
   <si>
@@ -57,7 +56,16 @@
     <t>100 feet and over</t>
   </si>
   <si>
-    <t xml:space="preserve"> Up to 39 feet</t>
+    <t>License year</t>
+  </si>
+  <si>
+    <t>1967-68</t>
+  </si>
+  <si>
+    <t>1968-69</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25 to 39 feet</t>
   </si>
 </sst>
 </file>
@@ -426,7 +434,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -441,36 +449,36 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>1550</v>
@@ -500,7 +508,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>1677</v>
